--- a/output/SCENARIO 5/sch5-arr8.6-mm1-res.xlsx
+++ b/output/SCENARIO 5/sch5-arr8.6-mm1-res.xlsx
@@ -15,18 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>stat</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Stage_1/2</t>
-  </si>
-  <si>
-    <t>Stage_3/4</t>
+    <t>no_cancer</t>
+  </si>
+  <si>
+    <t>cancer</t>
+  </si>
+  <si>
+    <t>stage_1_2</t>
+  </si>
+  <si>
+    <t>stage_3_4</t>
   </si>
   <si>
     <t>1</t>
@@ -44,82 +47,49 @@
     <t>5</t>
   </si>
   <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>unique_arrivals</t>
+  </si>
+  <si>
+    <t>total_scanned</t>
+  </si>
+  <si>
+    <t>total_returns</t>
+  </si>
+  <si>
+    <t>effective_arr_rate</t>
+  </si>
+  <si>
+    <t>Wait Time</t>
+  </si>
+  <si>
+    <t>Time in System</t>
+  </si>
+  <si>
+    <t>Service Time</t>
+  </si>
+  <si>
+    <t>Queue Size</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>Percentage of Total Scans</t>
-  </si>
-  <si>
-    <t>Pecentage of all Cancer Results</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>unique_arrivals</t>
-  </si>
-  <si>
-    <t>total_scanned</t>
-  </si>
-  <si>
-    <t>total_returns</t>
-  </si>
-  <si>
-    <t>Wait Time</t>
-  </si>
-  <si>
-    <t>Time in System</t>
-  </si>
-  <si>
-    <t>Service Time</t>
-  </si>
-  <si>
-    <t>Queue Size</t>
   </si>
   <si>
     <t>avg_max</t>
@@ -199,260 +169,108 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="n">
+        <v>20942.966666666667</v>
       </c>
       <c r="D2" t="n">
+        <v>1753.5666666666666</v>
+      </c>
+      <c r="E2" t="n">
         <v>1228.4666666666667</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>525.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>165.7639541810798</v>
       </c>
       <c r="D3" t="n">
+        <v>38.23311737705698</v>
+      </c>
+      <c r="E3" t="n">
         <v>34.125259461773084</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>23.569925314059542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20986.5</v>
       </c>
       <c r="D4" t="n">
+        <v>1757.0</v>
+      </c>
+      <c r="E4" t="n">
         <v>1228.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>520.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21134.0</v>
       </c>
       <c r="D5" t="n">
+        <v>1829.0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1274.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>581.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20539.0</v>
       </c>
       <c r="D6" t="n">
+        <v>1675.0</v>
+      </c>
+      <c r="E6" t="n">
         <v>1153.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>490.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.412385608883806</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.3135926037799344</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.13650613123607344</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1027340611311325</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5.438787004766899</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2.3073825117496627</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>5.633241879812373</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.563536886692552</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>5.106514903228663</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2.1666957889218943</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="n">
-        <v>70.054826677525</v>
-      </c>
-      <c r="E12" t="n">
-        <v>29.945173322475004</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.1841769058729572</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.1841769058729563</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="n">
-        <v>70.0820583526063</v>
-      </c>
-      <c r="E14" t="n">
-        <v>29.9179416473937</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="n">
-        <v>72.20646625070903</v>
-      </c>
-      <c r="E15" t="n">
-        <v>32.45459871118922</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="n">
-        <v>67.54540128881078</v>
-      </c>
-      <c r="E16" t="n">
-        <v>27.793533749290983</v>
       </c>
     </row>
   </sheetData>
@@ -471,24 +289,27 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>16610.2</v>
@@ -499,13 +320,16 @@
       <c r="E2" t="n">
         <v>6223.1</v>
       </c>
+      <c r="F2" t="n">
+        <v>21.14323853819838</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>170.93725406588877</v>
@@ -516,13 +340,16 @@
       <c r="E3" t="n">
         <v>84.23585525383373</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.20703448473252556</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>16639.5</v>
@@ -533,13 +360,16 @@
       <c r="E4" t="n">
         <v>6231.0</v>
       </c>
+      <c r="F4" t="n">
+        <v>21.180176260597946</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
         <v>16950.0</v>
@@ -550,13 +380,16 @@
       <c r="E5" t="n">
         <v>6362.0</v>
       </c>
+      <c r="F5" t="n">
+        <v>21.585185185185185</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>16222.0</v>
@@ -566,6 +399,9 @@
       </c>
       <c r="E6" t="n">
         <v>6054.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>20.65277777777778</v>
       </c>
     </row>
   </sheetData>
@@ -587,24 +423,24 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>3.6676259908374504</v>
@@ -621,10 +457,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>1.852467963285076</v>
@@ -641,10 +477,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>2.2513750000001096</v>
@@ -661,10 +497,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
         <v>11.55321000000002</v>
@@ -681,10 +517,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>0.0</v>
@@ -701,10 +537,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
         <v>23.44320000000016</v>
@@ -721,10 +557,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -758,84 +594,84 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>92.15428886178807</v>
+        <v>30.71809628726269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8228059773948213</v>
+        <v>0.2742686591316072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>101.43000000001621</v>
+        <v>33.8100000000054</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>121.74800000000914</v>
+        <v>40.58266666666972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>5.1609999999959655</v>
+        <v>1.7203333333319886</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>134.36999999996715</v>
+        <v>44.78999999998905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>1.59000000001015</v>
+        <v>0.5300000000033833</v>
       </c>
     </row>
   </sheetData>
